--- a/emergency-libet/scenarios.xlsx
+++ b/emergency-libet/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutzerzwei\Desktop\psychopy_lab_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeren\Desktop\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B18158-538C-45FC-A34A-D1D46F0A8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE6740D-6193-458C-8D23-DEC2711C4852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="4" r:id="rId1"/>
@@ -318,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,36 +336,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,25 +359,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,23 +708,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F35EBF-3FA3-4EF5-A057-8D6BB48EA009}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5546875" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,9 +737,10 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,9 +754,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -789,11 +767,10 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -804,11 +781,10 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -819,41 +795,38 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -864,11 +837,10 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -879,11 +851,10 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -895,9 +866,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -908,41 +879,38 @@
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -953,11 +921,10 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -968,11 +935,10 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -983,11 +949,10 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -999,9 +964,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1012,11 +977,10 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1027,11 +991,10 @@
       <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1042,11 +1005,10 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1057,11 +1019,10 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1072,11 +1033,10 @@
       <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1087,577 +1047,574 @@
       <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="D49" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102">
         <v>1</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108">
-        <v>12</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108">
         <v>8</v>
       </c>
     </row>
